--- a/顺丰物流信息完整.xlsx
+++ b/顺丰物流信息完整.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="运输业务量" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -367,6 +367,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4209,19 +4210,20 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
